--- a/biology/Zoologie/Hydrops_caesurus/Hydrops_caesurus.xlsx
+++ b/biology/Zoologie/Hydrops_caesurus/Hydrops_caesurus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hydrops caesurus  est une espèce de serpents de la famille des Dipsadidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hydrops caesurus  est une espèce de serpents de la famille des Dipsadidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre :
 au Brésil dans le sud du Mato Grosso et l'Ouest du Mato Grosso do Sul ;
 au Paraguay ;
 en Argentine dans les provinces de Formosa, du Chaco, de Santa Fe et de Corrientes</t>
@@ -544,9 +558,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom spécifique caesurus vient du latin caesura, la césure, en référence à l'absence de bandes dorsales et aux points qui semblent dessiner une bande interrompue[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom spécifique caesurus vient du latin caesura, la césure, en référence à l'absence de bandes dorsales et aux points qui semblent dessiner une bande interrompue.
 </t>
         </is>
       </c>
@@ -575,7 +591,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Scrocchi, Lucia-Ferreira, Giraudo, Avila &amp; Motte, 2005 : A new species of Hydrops (Serpentes: Colubridae: Hydropsini) from Argentina, Brazil, and Paraguay. Herpetologica, vol. 61, no 4, p. 468-477.</t>
         </is>
